--- a/downloaded_files/AERS211_Lecture-35768.xlsx
+++ b/downloaded_files/AERS211_Lecture-35768.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>AHMED MEDHAT MOHAMED NABIL KAMEL EMARA</x:t>
   </x:si>
   <x:si>
+    <x:t>4250166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل ابراهيم العجمى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Waaiel</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240021</x:t>
   </x:si>
   <x:si>
@@ -150,6 +159,15 @@
     <x:t>Loai Atef Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240261</x:t>
   </x:si>
   <x:si>
@@ -166,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Nabil Seddik Soliman Omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد فراج على محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Farag Ali Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240381</x:t>
@@ -326,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -781,7 +808,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45922.3835153588</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -813,7 +840,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6663350694</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +872,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6663350694</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6668284375</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +936,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45907.6668284375</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +968,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.7694162847</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.7694162847</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1369,102 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.6700440625</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45916.9570266551</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS211_Lecture-35768.xlsx
+++ b/downloaded_files/AERS211_Lecture-35768.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,12 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد شعبان محمد صالح</x:t>
   </x:si>
   <x:si>
     <x:t>1240261</x:t>
@@ -353,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -808,7 +814,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45922.3835153588</x:v>
+        <x:v>45927.5221410069</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1220,11 +1226,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,16 +1251,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,16 +1283,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,16 +1315,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,16 +1347,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,16 +1379,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,16 +1411,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1439,16 +1443,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1469,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS211_Lecture-35768.xlsx
+++ b/downloaded_files/AERS211_Lecture-35768.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Waaiel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد وائل فوزى سعد بكر ابو العز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
     <x:t>1240021</x:t>
@@ -359,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -846,7 +855,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45928.9611408912</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -878,7 +887,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6663350694</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -910,7 +919,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6663350694</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -942,7 +951,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6668284375</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -974,7 +983,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45907.6668284375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1006,7 +1015,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1038,7 +1047,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1070,7 +1079,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.7694162847</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1102,7 +1111,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.7694162847</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1134,7 +1143,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1166,7 +1175,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1198,7 +1207,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1226,9 +1235,11 @@
       <x:c r="C17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1251,16 +1262,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
+      <x:c r="D18" s="2" t="s"/>
       <x:c r="E18" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1292,7 +1301,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1501,6 +1510,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS211_Lecture-35768.xlsx
+++ b/downloaded_files/AERS211_Lecture-35768.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4250205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد انور محمد على محمد صابر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Anwar Mohammed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240206</x:t>
   </x:si>
   <x:si>
@@ -175,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Algharieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايمن نبيل ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ayman Nabil Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>4240046</x:t>
@@ -368,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -668,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -759,7 +777,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6650081829</x:v>
+        <x:v>45929.4869504977</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -791,7 +809,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6663296644</x:v>
+        <x:v>45907.6650081829</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -823,7 +841,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.5221410069</x:v>
+        <x:v>45907.6663296644</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -855,7 +873,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.9611408912</x:v>
+        <x:v>45927.5221410069</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -887,7 +905,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45928.9611408912</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -919,7 +937,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6663350694</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -951,7 +969,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6663350694</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -983,7 +1001,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6668284375</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1015,7 +1033,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45907.6668284375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1047,7 +1065,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1079,7 +1097,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1111,7 +1129,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.7694162847</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1143,7 +1161,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.7694162847</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1175,7 +1193,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1207,7 +1225,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1239,7 +1257,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1267,9 +1285,11 @@
       <x:c r="C18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s"/>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1292,16 +1312,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45929.5007931713</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1324,16 +1344,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1365,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1397,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1429,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1461,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1493,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1525,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1542,6 +1560,70 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45916.9570266551</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS211_Lecture-35768.xlsx
+++ b/downloaded_files/AERS211_Lecture-35768.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>sara alaa mohamed abdelazim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف الدين وليد فخرى حامد حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saif waleed</x:t>
   </x:si>
   <x:si>
     <x:t>1240076</x:t>
@@ -386,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1161,7 +1170,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.7694162847</x:v>
+        <x:v>45934.8578114236</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1193,7 +1202,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.7694162847</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1225,7 +1234,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1257,7 +1266,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1289,7 +1298,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1321,7 +1330,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45929.5007931713</x:v>
+        <x:v>45922.3910580208</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1349,9 +1358,11 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45929.5007931713</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,16 +1385,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.9570266551</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658591782</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1633,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6658591782</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS211_Lecture-35768.xlsx
+++ b/downloaded_files/AERS211_Lecture-35768.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -207,7 +207,10 @@
     <x:t>4240046</x:t>
   </x:si>
   <x:si>
-    <x:t>محمد شعبان محمد صالح</x:t>
+    <x:t>محمد شعبان محمد صالح حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed shabaan mohamed saleh hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240261</x:t>
@@ -1390,7 +1393,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="E21" s="3">
         <x:v>45927.4720945602</x:v>
       </x:c>
@@ -1415,13 +1420,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.6651458333</x:v>
@@ -1447,13 +1452,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.6656043171</x:v>
@@ -1479,13 +1484,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45922.3872527431</x:v>
@@ -1511,13 +1516,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6648476505</x:v>
@@ -1543,13 +1548,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.664794213</x:v>
@@ -1575,13 +1580,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.6700440625</x:v>
@@ -1607,13 +1612,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45916.9570266551</x:v>
@@ -1639,13 +1644,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.6658591782</x:v>

--- a/downloaded_files/AERS211_Lecture-35768.xlsx
+++ b/downloaded_files/AERS211_Lecture-35768.xlsx
@@ -174,7 +174,7 @@
     <x:t>على حسن على حسن على</x:t>
   </x:si>
   <x:si>
-    <x:t>Ali Hassan Ali Hassan</x:t>
+    <x:t>Ali Hassan Ali Hassan Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240125</x:t>
@@ -246,7 +246,7 @@
     <x:t>مينا وجيه خليل شاكر اسحاق عبد المسيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmaish</x:t>
+    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmasih</x:t>
   </x:si>
   <x:si>
     <x:t>1240385</x:t>
@@ -264,7 +264,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>4250198</x:t>

--- a/downloaded_files/AERS211_Lecture-35768.xlsx
+++ b/downloaded_files/AERS211_Lecture-35768.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4250205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد انور محمد على محمد صابر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Anwar Mohammed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240206</x:t>
   </x:si>
   <x:si>
@@ -184,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Loai Atef Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد الغريب عبدالوهاب الغريب مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Algharieb</x:t>
   </x:si>
   <x:si>
     <x:t>4250175</x:t>
@@ -398,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -789,7 +771,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45929.4869504977</x:v>
+        <x:v>45907.6650081829</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -821,7 +803,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6650081829</x:v>
+        <x:v>45907.6663296644</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -853,7 +835,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6663296644</x:v>
+        <x:v>45927.5221410069</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -885,7 +867,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.5221410069</x:v>
+        <x:v>45928.9611408912</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,7 +899,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.9611408912</x:v>
+        <x:v>45907.6664052431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +931,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6664052431</x:v>
+        <x:v>45907.6663350694</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6663350694</x:v>
+        <x:v>45907.6652091435</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6652091435</x:v>
+        <x:v>45907.6668284375</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6668284375</x:v>
+        <x:v>45907.6845854514</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6845854514</x:v>
+        <x:v>45907.6699376968</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6699376968</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45934.8578114236</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45934.8578114236</x:v>
+        <x:v>45907.7694162847</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.7694162847</x:v>
+        <x:v>45907.6653321412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6653321412</x:v>
+        <x:v>45907.6658606482</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6658606482</x:v>
+        <x:v>45907.6674473032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6674473032</x:v>
+        <x:v>45929.5007931713</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.3910580208</x:v>
+        <x:v>45927.4720945602</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45929.5007931713</x:v>
+        <x:v>45907.6651458333</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4720945602</x:v>
+        <x:v>45907.6656043171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651458333</x:v>
+        <x:v>45922.3872527431</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6656043171</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.3872527431</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6700440625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45916.9570266551</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6700440625</x:v>
+        <x:v>45907.6658591782</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1606,70 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45916.9570266551</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45907.6658591782</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
